--- a/assets/template_excel/template_master.xlsx
+++ b/assets/template_excel/template_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\padono\assets\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59390585-D0F1-4BAA-92B6-BA908EB7553B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32BF94A-B89F-4949-B2B6-FEE7D49EC676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1CA5B1CB-1263-EC46-AFFE-BD124F4E0973}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
